--- a/datasets/estados.xlsx
+++ b/datasets/estados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmartinez\Desktop\ProgramasSociales\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D22829-F770-4F78-9229-5F7B0DDEDE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D30147-63A7-41EE-9D9D-CC8E022ABA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{91E09DB2-03A3-4263-B911-8AE64A31A37C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="123">
   <si>
     <t>Anio</t>
   </si>
@@ -308,6 +308,108 @@
   <si>
     <t>https://www.zacatecas.gob.mx/</t>
   </si>
+  <si>
+    <t>cve_ent</t>
+  </si>
+  <si>
+    <t>nom_ent</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
 </sst>
 </file>
 
@@ -376,9 +478,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,7 +518,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -522,7 +624,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -664,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -674,9 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536933F1-5E99-4AB6-87FA-9DABEE073839}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
@@ -687,18 +787,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -708,8 +808,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -719,8 +819,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -730,8 +830,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -741,8 +841,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -752,8 +852,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -763,8 +863,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -774,8 +874,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -785,8 +885,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -796,8 +896,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -807,8 +907,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -818,8 +918,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -829,8 +929,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -840,8 +940,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -851,8 +951,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -862,8 +962,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -873,8 +973,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -884,8 +984,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -895,8 +995,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -906,8 +1006,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -917,8 +1017,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
@@ -928,8 +1028,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -939,8 +1039,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
@@ -950,8 +1050,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
@@ -961,8 +1061,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -972,8 +1072,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -983,8 +1083,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -994,8 +1094,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1005,8 +1105,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -1016,8 +1116,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -1027,8 +1127,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -1038,8 +1138,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
